--- a/pred_ohlcv/54_21/2020-01-19 VET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 VET ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>405995.2248000002</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>406086.7080000002</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>385290.4168000002</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>382528.4857000003</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>807539.1149000003</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>807539.1149000003</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>819850.1413000003</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>819850.1413000003</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>819955.9031000002</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>819955.9031000002</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>720929.0387000003</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>642929.0387000003</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>643013.4126000003</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>642886.4899000003</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>641813.6296000003</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>641813.6296000003</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>642784.7251000004</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>642784.7251000004</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>529968.8918000003</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>652327.4924000003</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>656572.2304000003</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>536986.2304000003</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>525371.9263000004</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>404735.5511000004</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>415110.8529000004</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>372642.2720000004</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>385604.6472000004</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>358520.4684000004</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>355018.8950000004</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>202438.8580000004</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>202438.8580000004</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>877323.6041000003</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1328082.778676958</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1320494.778676958</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-899525.3916769577</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1060623.230576958</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1116267.381276958</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1486484.045776958</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1473794.963476958</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-1476794.963476958</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1119219.961376958</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1172445.927176958</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1124040.228876958</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-871068.3708769579</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-715988.6496558312</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-727964.6975558312</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-629163.1453558311</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-732316.4804558312</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-711775.5154558312</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-721973.6150558311</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-721815.9572558311</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-732410.8669558311</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-727070.8669558311</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-727070.8669558311</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-727070.8669558311</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-727142.8669558311</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-726003.9213558311</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-726891.8171558311</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-739350.5784558312</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-740308.7483558311</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-740238.4742558311</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-779204.9532558311</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-732989.8014558312</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-746904.3148558312</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 VET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 VET ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>405995.2248000002</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>406086.7080000002</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>385290.4168000002</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>382528.4857000003</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>807539.1149000003</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>807539.1149000003</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>819850.1413000003</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>819850.1413000003</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>819955.9031000002</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>819955.9031000002</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>720929.0387000003</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>642929.0387000003</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>643013.4126000003</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>642886.4899000003</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>641813.6296000003</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>641813.6296000003</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>642784.7251000004</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>642784.7251000004</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>529968.8918000003</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>652327.4924000003</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>372642.2720000004</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>358520.4684000004</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>202438.8580000004</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>202438.8580000004</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>877323.6041000003</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1328082.778676958</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1320494.778676958</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1340475.752576958</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1340166.597276958</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-874755.9060769577</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1060623.230576958</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1506484.045676958</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-1498147.986376958</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1119219.961376958</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1124040.228876958</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-715988.6496558312</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-727964.6975558312</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-629163.1453558311</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-732316.4804558312</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-711775.5154558312</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-721973.6150558311</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-721815.9572558311</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-732410.8669558311</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-727070.8669558311</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-727070.8669558311</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-727070.8669558311</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-727142.8669558311</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-726003.9213558311</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-726891.8171558311</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-739350.5784558312</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-740308.7483558311</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-740238.4742558311</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-779204.9532558311</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-732989.8014558312</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-746904.3148558312</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
